--- a/target/classes/whiteBoxTestCases.xlsx
+++ b/target/classes/whiteBoxTestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9442F610-3A92-4E3E-9F86-B72CF8EB0C22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB27C5F-29BB-4311-9DB6-F0A56BFAF374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,27 +53,12 @@
     <t>400000.0</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>200000.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>600000.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>200000.0</t>
-  </si>
-  <si>
-    <t>600000.0</t>
   </si>
   <si>
     <t>0.0</t>
@@ -84,7 +69,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,8 +396,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="1" max="1" width="18.625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -455,12 +439,7 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -476,13 +455,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -499,12 +472,6 @@
         <v>0.7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -522,12 +489,6 @@
         <v>0.8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -545,13 +506,7 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -568,13 +523,7 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -591,13 +540,7 @@
         <v>0.9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -614,13 +557,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/whiteBoxTestCases.xlsx
+++ b/target/classes/whiteBoxTestCases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB27C5F-29BB-4311-9DB6-F0A56BFAF374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1160FA80-F5EF-4188-8317-0107FAAC8DDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
